--- a/data/cidades.xlsx
+++ b/data/cidades.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchiluanda/Documents/GitHub/desiertos/desiertos-side/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB476294-C5E7-3F43-B91B-491B3F6CACC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25485977-7346-7844-BE95-4D66B654B438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13680" activeTab="5" xr2:uid="{97B0FC9D-5E24-8545-AB29-59F1B45041D3}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13680" activeTab="1" xr2:uid="{97B0FC9D-5E24-8545-AB29-59F1B45041D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Salta" sheetId="1" r:id="rId1"/>
-    <sheet name="São Luis" sheetId="4" r:id="rId2"/>
+    <sheet name="San Luis" sheetId="4" r:id="rId2"/>
     <sheet name="Santa Cruz" sheetId="3" r:id="rId3"/>
     <sheet name="Rio Negro" sheetId="2" r:id="rId4"/>
     <sheet name="Neuquén" sheetId="5" r:id="rId5"/>
